--- a/allTrait_Model_univariateANOVA_NoAntibiotic.xlsx
+++ b/allTrait_Model_univariateANOVA_NoAntibiotic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apb/Documents/GitHub/microbiome_lifehistory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50706CED-CC41-3D4A-B669-9EAA8AA4101D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9374D580-B952-FD44-A9BB-6764C04BBB1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14780" yWindow="7200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -957,16 +957,16 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.14147483076923001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>45.213202500907698</v>
+        <v>45.2</v>
       </c>
       <c r="F2" s="1">
-        <v>4.0468892349409603E-8</v>
+        <v>4.0499999999999999E-8</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -980,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>3.4270954102563797E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>10.952475287042599</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>1.9545526429040699E-3</v>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1003,16 +1003,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>6.1443692307691297E-3</v>
+        <v>6.1399999999999996E-3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.96364688164399</v>
+        <v>1.96</v>
       </c>
       <c r="F4">
-        <v>0.16864832462861101</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1023,16 +1023,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.1564102564102399</v>
+        <v>2.16</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>11.4326923076922</v>
+        <v>11.4</v>
       </c>
       <c r="F5">
-        <v>1.5958014706513801E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -1046,16 +1046,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3.8164102564102</v>
+        <v>3.82</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>20.233554376657398</v>
+        <v>20.2</v>
       </c>
       <c r="F6" s="1">
-        <v>5.5409524420951703E-5</v>
+        <v>5.5399999999999998E-5</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1069,16 +1069,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>6.4102564102563599</v>
+        <v>6.41</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>33.985411140583203</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1">
-        <v>7.5565793374077298E-7</v>
+        <v>7.5600000000000005E-7</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -1092,16 +1092,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>5.9707130003621399E-4</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>49.0413187424423</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
-        <v>1.6321717123322099E-8</v>
+        <v>1.63E-8</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -1115,16 +1115,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>2.77517401731792E-4</v>
+        <v>2.7799999999999998E-4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>22.7942950097882</v>
+        <v>22.8</v>
       </c>
       <c r="F9" s="1">
-        <v>2.3109035237496299E-5</v>
+        <v>2.3099999999999999E-5</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -1138,16 +1138,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>3.3322612294404898E-4</v>
+        <v>3.3300000000000002E-4</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>27.370011768470899</v>
+        <v>27.4</v>
       </c>
       <c r="F10" s="1">
-        <v>5.3085488432035296E-6</v>
+        <v>5.31E-6</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -1161,16 +1161,16 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>8.0410256410256196</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.1671854157403097</v>
+        <v>8.17</v>
       </c>
       <c r="F11">
-        <v>6.6730256101211003E-3</v>
+        <v>6.6699999999999997E-3</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -1184,16 +1184,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.66769230769229</v>
+        <v>2.67</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2.7095471002985301</v>
+        <v>2.71</v>
       </c>
       <c r="F12">
-        <v>0.107394840497765</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1204,16 +1204,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.92564102564102002</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.94016388236040804</v>
+        <v>0.94</v>
       </c>
       <c r="F13">
-        <v>0.337921220866163</v>
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,16 +1224,16 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>1500.5769230769099</v>
+        <v>1500</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8.29532411408813</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F14">
-        <v>6.2931103067048796E-3</v>
+        <v>6.2899999999999996E-3</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1247,16 +1247,16 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>8272.4102564102504</v>
+        <v>8270</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>45.730627484874603</v>
+        <v>45.7</v>
       </c>
       <c r="F15" s="1">
-        <v>3.5708428480235999E-8</v>
+        <v>3.5700000000000002E-8</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1270,16 +1270,16 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>666.92307692307804</v>
+        <v>667</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>3.68681071737252</v>
+        <v>3.69</v>
       </c>
       <c r="F16">
-        <v>6.18196753047262E-2</v>
+        <v>6.1800000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1290,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>7.7564102564102697</v>
+        <v>7.76</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.36143296769906902</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="F17">
-        <v>0.551021113656888</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,16 +1310,16 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>246.25641025640999</v>
+        <v>246</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>11.4750486670474</v>
+        <v>11.5</v>
       </c>
       <c r="F18">
-        <v>1.5676925537094701E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1333,16 +1333,16 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>26.676923076923099</v>
+        <v>26.7</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1.2430904449392099</v>
+        <v>1.24</v>
       </c>
       <c r="F19">
-        <v>0.27136915159832198</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
   </sheetData>
